--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-missing-required.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-missing-required.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="280" windowWidth="25600" windowHeight="20460"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="24400" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Buick Example" sheetId="2" r:id="rId1"/>
@@ -243,12 +243,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -259,6 +253,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
   </si>
 </sst>
 </file>
@@ -726,9 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -741,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -756,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -765,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -774,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -785,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -794,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -805,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -814,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -825,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -834,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -845,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -854,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -865,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -874,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -885,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -894,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -905,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -914,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -925,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -934,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -945,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -954,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -965,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -974,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -985,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -994,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1005,7 +1003,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>42</v>
@@ -1014,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1025,7 +1023,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
@@ -1034,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1045,7 +1043,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
@@ -1054,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1065,7 +1063,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
@@ -1074,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1085,7 +1083,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
@@ -1094,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1105,7 +1103,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>57</v>
@@ -1114,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1125,7 +1123,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
@@ -1134,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1145,7 +1143,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>63</v>
@@ -1154,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1165,7 +1163,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
@@ -1174,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1185,7 +1183,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>69</v>
@@ -1194,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1205,7 +1203,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -1214,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
